--- a/xlsForms/Encuesta 3 COMERCIAL.xlsx
+++ b/xlsForms/Encuesta 3 COMERCIAL.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9B802-10DC-4CAD-857E-0D67B9BDBDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,821 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="269">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>datos_encuesta</t>
+  </si>
+  <si>
+    <t>Datos generales de la encuesta</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>num_encuesta</t>
+  </si>
+  <si>
+    <t>Encuesta No.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>encuestador</t>
+  </si>
+  <si>
+    <t>Encuestador</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>ident_entrevistado</t>
+  </si>
+  <si>
+    <t>Identificación del entrevistado</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>pertenencia_asociacion</t>
+  </si>
+  <si>
+    <t>¿Pertenece a alguna asociación?</t>
+  </si>
+  <si>
+    <t>asociacion_cual</t>
+  </si>
+  <si>
+    <t>¿Cuál? (Especificar asociación)</t>
+  </si>
+  <si>
+    <t>conditional</t>
+  </si>
+  <si>
+    <t>${pertenencia_asociacion} = 'yes'</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>tipo_productos</t>
+  </si>
+  <si>
+    <t>agricola</t>
+  </si>
+  <si>
+    <t>Agrícola</t>
+  </si>
+  <si>
+    <t>pecuaria</t>
+  </si>
+  <si>
+    <t>Pecuaria</t>
+  </si>
+  <si>
+    <t>viveres</t>
+  </si>
+  <si>
+    <t>Víveres</t>
+  </si>
+  <si>
+    <t>licores</t>
+  </si>
+  <si>
+    <t>Licores</t>
+  </si>
+  <si>
+    <t>naturales</t>
+  </si>
+  <si>
+    <t>Productos naturales</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>Agua en botella/bolsa</t>
+  </si>
+  <si>
+    <t>otros</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>frecuencia_compra</t>
+  </si>
+  <si>
+    <t>diario</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>quincenal</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>otro</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>tipo_emplacamiento</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>puesto_fijo</t>
+  </si>
+  <si>
+    <t>Puesto fijo</t>
+  </si>
+  <si>
+    <t>vivienda_actividad</t>
+  </si>
+  <si>
+    <t>Vivienda con actividad económica</t>
+  </si>
+  <si>
+    <t>venta_ambulante</t>
+  </si>
+  <si>
+    <t>Venta ambulante</t>
+  </si>
+  <si>
+    <t>valor_ventas</t>
+  </si>
+  <si>
+    <t>inferior_smlv</t>
+  </si>
+  <si>
+    <t>Inferiores al SMLV</t>
+  </si>
+  <si>
+    <t>igual_smlv</t>
+  </si>
+  <si>
+    <t>Igual al SMLV</t>
+  </si>
+  <si>
+    <t>entre_1y2_smlv</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 SMLV</t>
+  </si>
+  <si>
+    <t>superior_2</t>
+  </si>
+  <si>
+    <t>Superior a 2 SMLV</t>
+  </si>
+  <si>
+    <t>lugar_venta</t>
+  </si>
+  <si>
+    <t>sitio</t>
+  </si>
+  <si>
+    <t>Sitio</t>
+  </si>
+  <si>
+    <t>vereda</t>
+  </si>
+  <si>
+    <t>Vereda</t>
+  </si>
+  <si>
+    <t>casco_urbano</t>
+  </si>
+  <si>
+    <t>Casco urbano</t>
+  </si>
+  <si>
+    <t>Otros municipios/veredas</t>
+  </si>
+  <si>
+    <t>procedencia</t>
+  </si>
+  <si>
+    <t>hidrocarburos</t>
+  </si>
+  <si>
+    <t>Hidrocarburos</t>
+  </si>
+  <si>
+    <t>frecuencia_compra_veredas</t>
+  </si>
+  <si>
+    <t>descripcion_actividad</t>
+  </si>
+  <si>
+    <t>B. Descripción de la Actividad</t>
+  </si>
+  <si>
+    <t>select_multiple tipo_productos</t>
+  </si>
+  <si>
+    <t>1. ¿Qué tipo de productos comercializa?</t>
+  </si>
+  <si>
+    <t>otros_productos</t>
+  </si>
+  <si>
+    <t>Otros productos, ¿Cuáles?</t>
+  </si>
+  <si>
+    <t>selected(${tipo_productos}, 'otros')</t>
+  </si>
+  <si>
+    <t>producto_principal</t>
+  </si>
+  <si>
+    <t>2. ¿Cuál es el principal producto que comercializa?</t>
+  </si>
+  <si>
+    <t>select_one frecuencia_compra</t>
+  </si>
+  <si>
+    <t>3. ¿Con qué frecuencia compra los productos que comercializa?</t>
+  </si>
+  <si>
+    <t>frecuencia_compra_otro</t>
+  </si>
+  <si>
+    <t>Otro (frecuencia):</t>
+  </si>
+  <si>
+    <t>${frecuencia_compra} = 'otro'</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>abastecimiento</t>
+  </si>
+  <si>
+    <t>4. ¿Qué cantidades compra para el abastecimiento de su negocio y a qué precio?</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>end_repeat</t>
+  </si>
+  <si>
+    <t>precio_venta</t>
+  </si>
+  <si>
+    <t>5. ¿Cuál es el precio de venta de el/los productos?</t>
+  </si>
+  <si>
+    <t>producto_precio</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>select_multiple tipo_emplacamiento</t>
+  </si>
+  <si>
+    <t>6. Señale el tipo de emplazamiento</t>
+  </si>
+  <si>
+    <t>select_one valor_ventas</t>
+  </si>
+  <si>
+    <t>7. ¿Cuál fue el valor promedio de ventas en el último mes?</t>
+  </si>
+  <si>
+    <t>valor_ventas_otro</t>
+  </si>
+  <si>
+    <t>Valor específico ($):</t>
+  </si>
+  <si>
+    <t>${valor_ventas} = 'superior_2'</t>
+  </si>
+  <si>
+    <t>select_multiple lugar_venta</t>
+  </si>
+  <si>
+    <t>8. Vende principalmente en:</t>
+  </si>
+  <si>
+    <t>otros_lugares</t>
+  </si>
+  <si>
+    <t>Otros lugares, ¿Cuáles?</t>
+  </si>
+  <si>
+    <t>selected(${lugar_venta}, 'otros')</t>
+  </si>
+  <si>
+    <t>lleva_libros</t>
+  </si>
+  <si>
+    <t>9. ¿Lleva libros contables del establecimiento?</t>
+  </si>
+  <si>
+    <t>productos_insumos</t>
+  </si>
+  <si>
+    <t>10. ¿Qué productos o insumos compra en otras veredas y/o municipios?</t>
+  </si>
+  <si>
+    <t>select_multiple procedencia</t>
+  </si>
+  <si>
+    <t>procedencia_compradores</t>
+  </si>
+  <si>
+    <t>11. Procedencia de los compradores: Hidrocarburos/otros</t>
+  </si>
+  <si>
+    <t>procedencia_hidrocarburos</t>
+  </si>
+  <si>
+    <t>¿Cuál?</t>
+  </si>
+  <si>
+    <t>selected(${procedencia_compradores}, 'hidrocarburos')</t>
+  </si>
+  <si>
+    <t>procedencia_otros</t>
+  </si>
+  <si>
+    <t>selected(${procedencia_compradores}, 'otros')</t>
+  </si>
+  <si>
+    <t>select_one frecuencia_compra_veredas</t>
+  </si>
+  <si>
+    <t>12. ¿Con qué frecuencia compra productos en otras veredas y/o municipios?</t>
+  </si>
+  <si>
+    <t>frecuencia_compra_veredas_otro</t>
+  </si>
+  <si>
+    <t>Otro, ¿Cuál?</t>
+  </si>
+  <si>
+    <t>${frecuencia_compra_veredas} = 'otro'</t>
+  </si>
+  <si>
+    <t>begin_sobre_act</t>
+  </si>
+  <si>
+    <t>continuar_actividad</t>
+  </si>
+  <si>
+    <t>Continuar con la actividad.</t>
+  </si>
+  <si>
+    <t>porque_continuar</t>
+  </si>
+  <si>
+    <t>¿Por qué?</t>
+  </si>
+  <si>
+    <t>selected(${continuar_actividad}, 'no')</t>
+  </si>
+  <si>
+    <t>ampliar_produccion</t>
+  </si>
+  <si>
+    <t>Ampliar la producción.</t>
+  </si>
+  <si>
+    <t>porque_ampliar</t>
+  </si>
+  <si>
+    <t>selected(${ampliar_produccion}, 'no')</t>
+  </si>
+  <si>
+    <t>select_multiple recurso_hidrico</t>
+  </si>
+  <si>
+    <t>recurso_hidrico</t>
+  </si>
+  <si>
+    <t>14. ¿De dónde capta el recurso hídrico?</t>
+  </si>
+  <si>
+    <t>recurso_hidrico_otro</t>
+  </si>
+  <si>
+    <t>selected(${recurso_hidrico}, 'otro')</t>
+  </si>
+  <si>
+    <t>forma_extraccion</t>
+  </si>
+  <si>
+    <t>Forma de extracción</t>
+  </si>
+  <si>
+    <t>alcantarillado</t>
+  </si>
+  <si>
+    <t>15. ¿Cuenta con servicio de alcantarillado?</t>
+  </si>
+  <si>
+    <t>alcantarillado_cual</t>
+  </si>
+  <si>
+    <t>select_multiple energia_utiliza</t>
+  </si>
+  <si>
+    <t>energia_utiliza</t>
+  </si>
+  <si>
+    <t>16. ¿Qué tipo de energía utiliza?</t>
+  </si>
+  <si>
+    <t>energia_utiliza_otro</t>
+  </si>
+  <si>
+    <t>selected(${energia_utiliza}, 'otro')</t>
+  </si>
+  <si>
+    <t>select_multiple energia_coccion</t>
+  </si>
+  <si>
+    <t>energia_coccion</t>
+  </si>
+  <si>
+    <t>16.2 ¿De dónde proviene la energía que utiliza para la cocción de alimentos?</t>
+  </si>
+  <si>
+    <t>energia_coccion_otro</t>
+  </si>
+  <si>
+    <t>selected(${energia_coccion}, 'otro')</t>
+  </si>
+  <si>
+    <t>contrata_mano_obra</t>
+  </si>
+  <si>
+    <t>17. ¿Contrata algún tipo de mano de obra?</t>
+  </si>
+  <si>
+    <t>13. Sobre la actividad, piensa:</t>
+  </si>
+  <si>
+    <t>aljibe</t>
+  </si>
+  <si>
+    <t>Aljibe</t>
+  </si>
+  <si>
+    <t>acueducto_veredal</t>
+  </si>
+  <si>
+    <t>Acueducto veredal</t>
+  </si>
+  <si>
+    <t>energia_electrica</t>
+  </si>
+  <si>
+    <t>Energía eléctrica</t>
+  </si>
+  <si>
+    <t>energia_solar</t>
+  </si>
+  <si>
+    <t>Energía solar</t>
+  </si>
+  <si>
+    <t>lena</t>
+  </si>
+  <si>
+    <t>Leña</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>${alcantarillado} = 'yes'</t>
+  </si>
+  <si>
+    <t>end_sobre_act</t>
+  </si>
+  <si>
+    <t>Seleccione todas las opciones que apliquen</t>
+  </si>
+  <si>
+    <t>informacion_laboral</t>
+  </si>
+  <si>
+    <t>Información laboral</t>
+  </si>
+  <si>
+    <t>${contrata_mano_obra} = 'yes'</t>
+  </si>
+  <si>
+    <t>select_one tipo_mano_obra</t>
+  </si>
+  <si>
+    <t>tipo_mano_obra</t>
+  </si>
+  <si>
+    <t>Tipo de mano de obra</t>
+  </si>
+  <si>
+    <t>select_one genero</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>Edad (años)</t>
+  </si>
+  <si>
+    <t>duracion_jornada</t>
+  </si>
+  <si>
+    <t>Duración jornada (horas)</t>
+  </si>
+  <si>
+    <t>select_one escolaridad</t>
+  </si>
+  <si>
+    <t>escolaridad</t>
+  </si>
+  <si>
+    <t>Escolaridad</t>
+  </si>
+  <si>
+    <t>select_one contrato</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>pago_seguridad_social</t>
+  </si>
+  <si>
+    <t>¿Pago de seguridad social?</t>
+  </si>
+  <si>
+    <t>Procedencia</t>
+  </si>
+  <si>
+    <t>residencia</t>
+  </si>
+  <si>
+    <t>Residencia</t>
+  </si>
+  <si>
+    <t>tiempo_trabajado</t>
+  </si>
+  <si>
+    <t>Tiempo trabajado (meses/año)</t>
+  </si>
+  <si>
+    <t>nucleo_familiar</t>
+  </si>
+  <si>
+    <t>Número de personas núcleo familiar</t>
+  </si>
+  <si>
+    <t>personas_a_cargo</t>
+  </si>
+  <si>
+    <t>Personas a cargo</t>
+  </si>
+  <si>
+    <t>lugar_residencia_familiar</t>
+  </si>
+  <si>
+    <t>Lugar de residencia familiar</t>
+  </si>
+  <si>
+    <t>select_one remuneracion</t>
+  </si>
+  <si>
+    <t>remuneracion</t>
+  </si>
+  <si>
+    <t>Remuneración</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>contratado</t>
+  </si>
+  <si>
+    <t>Contratado</t>
+  </si>
+  <si>
+    <t>primaria</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>bachillerato</t>
+  </si>
+  <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>tecnico</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>pregrado</t>
+  </si>
+  <si>
+    <t>Pregrado</t>
+  </si>
+  <si>
+    <t>posgrado</t>
+  </si>
+  <si>
+    <t>Posgrado</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>Fijo</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>femenino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Encuesta Actividad Comercial</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1nfYCVZLgWTdDJqiu6xGAjT9PEDu6hx-mMRdER3zFYZQ/edit?usp=drive_link</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +848,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF538DD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +896,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1207,1838 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69038212-CBF1-41DA-9BC7-12A6DC69B7C5}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEAF369-4B68-4F6D-A95F-261DD1762122}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsForms/Encuesta 3 COMERCIAL.xlsx
+++ b/xlsForms/Encuesta 3 COMERCIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9B802-10DC-4CAD-857E-0D67B9BDBDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A6128-29B0-4CFC-BB98-4F32383C32DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="276">
   <si>
     <t>type</t>
   </si>
@@ -834,6 +834,27 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1nfYCVZLgWTdDJqiu6xGAjT9PEDu6hx-mMRdER3zFYZQ/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
@@ -888,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -911,11 +932,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -928,6 +960,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,9 +1261,10 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,8 +1286,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1301,12 +1343,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1429,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -2177,7 +2219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>225</v>
       </c>
@@ -2191,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2205,7 +2247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2219,7 +2261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -2247,7 +2289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -2261,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -2275,7 +2317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -2300,10 +2342,60 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsForms/Encuesta 3 COMERCIAL.xlsx
+++ b/xlsForms/Encuesta 3 COMERCIAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A6128-29B0-4CFC-BB98-4F32383C32DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967DAE95-8C0C-4026-AEBA-4B8E656729E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
